--- a/fichiers_xls/gathertests/Nouveau dossier/test_string_in_binary.xlsx
+++ b/fichiers_xls/gathertests/Nouveau dossier/test_string_in_binary.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="sheet1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="expected" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="expected" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlfn_T_TEST" hidden="0" function="0" vbProcedure="0">NA()</definedName>
@@ -214,14 +214,14 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr rot="0"/>
-          <a:lstStyle/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="0"/>
+          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr sz="1400" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
@@ -248,14 +248,14 @@
           <yMode val="edge"/>
           <wMode val="factor"/>
           <hMode val="factor"/>
-          <x val="0.305138586110246"/>
-          <y val="0.0283127152148961"/>
+          <x val="0.305176602504205"/>
+          <y val="0.0285750733511928"/>
         </manualLayout>
       </layout>
       <overlay val="0"/>
       <spPr>
-        <a:noFill/>
-        <a:ln w="0">
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="0">
           <a:noFill/>
           <a:prstDash val="solid"/>
         </a:ln>
@@ -268,10 +268,10 @@
           <yMode val="edge"/>
           <wMode val="factor"/>
           <hMode val="factor"/>
-          <x val="0.0127063220180629"/>
-          <y val="0.125366662415508"/>
-          <w val="0.9644347555278731"/>
-          <h val="0.8581813544190789"/>
+          <x val="0.0127079050644739"/>
+          <y val="0.125398647786707"/>
+          <w val="0.964305737245375"/>
+          <h val="0.857890036994515"/>
         </manualLayout>
       </layout>
       <barChart>
@@ -283,7 +283,7 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>sheet1!$BT$13:$BT$13</f>
+              <f>sheet1!$BR$13:$BR$13</f>
               <strCache>
                 <ptCount val="1"/>
                 <pt idx="0">
@@ -293,10 +293,10 @@
             </strRef>
           </tx>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="5b9bd5"/>
             </a:solidFill>
-            <a:ln w="0">
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="0">
               <a:noFill/>
               <a:prstDash val="solid"/>
             </a:ln>
@@ -304,9 +304,9 @@
           <invertIfNegative val="0"/>
           <dLbls>
             <txPr>
-              <a:bodyPr wrap="square"/>
-              <a:lstStyle/>
-              <a:p>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square"/>
+              <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:pPr>
                   <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
@@ -330,7 +330,7 @@
           </dLbls>
           <cat>
             <strRef>
-              <f>sheet1!$BU$12:$CZ$12</f>
+              <f>sheet1!$BS$12:$CX$12</f>
               <strCache>
                 <ptCount val="32"/>
                 <pt idx="0">
@@ -434,7 +434,7 @@
           </cat>
           <val>
             <numRef>
-              <f>sheet1!$BU$13:$CZ$13</f>
+              <f>sheet1!$BS$13:$CX$13</f>
               <numCache>
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
@@ -444,11 +444,11 @@
         </ser>
         <gapWidth val="219"/>
         <overlap val="-27"/>
-        <axId val="41143696"/>
-        <axId val="91738411"/>
+        <axId val="11790527"/>
+        <axId val="85192187"/>
       </barChart>
       <catAx>
-        <axId val="41143696"/>
+        <axId val="11790527"/>
         <scaling>
           <orientation val="minMax"/>
         </scaling>
@@ -459,7 +459,7 @@
         <minorTickMark val="none"/>
         <tickLblPos val="nextTo"/>
         <spPr>
-          <a:ln w="0">
+          <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="0">
             <a:solidFill>
               <a:srgbClr val="c0c0c0"/>
             </a:solidFill>
@@ -467,9 +467,9 @@
           </a:ln>
         </spPr>
         <txPr>
-          <a:bodyPr rot="-5400000"/>
-          <a:lstStyle/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="-5400000"/>
+          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
@@ -483,7 +483,7 @@
             </a:r>
           </a:p>
         </txPr>
-        <crossAx val="91738411"/>
+        <crossAx val="85192187"/>
         <crossesAt val="0"/>
         <auto val="1"/>
         <lblAlgn val="ctr"/>
@@ -491,7 +491,7 @@
         <noMultiLvlLbl val="0"/>
       </catAx>
       <valAx>
-        <axId val="91738411"/>
+        <axId val="85192187"/>
         <scaling>
           <orientation val="minMax"/>
           <max val="100"/>
@@ -500,7 +500,7 @@
         <axPos val="l"/>
         <majorGridlines>
           <spPr>
-            <a:ln w="0">
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="0">
               <a:solidFill>
                 <a:srgbClr val="c0c0c0"/>
               </a:solidFill>
@@ -513,15 +513,15 @@
         <minorTickMark val="none"/>
         <tickLblPos val="nextTo"/>
         <spPr>
-          <a:ln w="0">
+          <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="0">
             <a:noFill/>
             <a:prstDash val="solid"/>
           </a:ln>
         </spPr>
         <txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
@@ -535,7 +535,7 @@
             </a:r>
           </a:p>
         </txPr>
-        <crossAx val="41143696"/>
+        <crossAx val="11790527"/>
         <crossesAt val="1"/>
         <crossBetween val="midCat"/>
       </valAx>
@@ -544,10 +544,10 @@
     <dispBlanksAs val="gap"/>
   </chart>
   <spPr>
-    <a:solidFill>
+    <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
       <a:srgbClr val="ffffff"/>
     </a:solidFill>
-    <a:ln w="0">
+    <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="0">
       <a:solidFill>
         <a:srgbClr val="c0c0c0"/>
       </a:solidFill>
@@ -558,19 +558,19 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
-      <col>127</col>
+      <col>125</col>
       <colOff>504000</colOff>
       <row>16</row>
       <rowOff>103320</rowOff>
     </from>
     <to>
-      <col>134</col>
-      <colOff>594000</colOff>
+      <col>132</col>
+      <colOff>592920</colOff>
       <row>34</row>
-      <rowOff>11160</rowOff>
+      <rowOff>10440</rowOff>
     </to>
     <graphicFrame>
       <nvGraphicFramePr>
@@ -578,9 +578,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -765,7 +765,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr filterMode="0">
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
@@ -1308,7 +1308,7 @@
     <firstHeader/>
     <firstFooter/>
   </headerFooter>
-  <drawing r:id="rId1"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </worksheet>
 </file>
 
